--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_187.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_187.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32182-d78672-Reviews-Days_Inn_Castaic_Six_Flags_Magic_Mountain-Castaic_California.html</t>
+  </si>
+  <si>
+    <t>542</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>553</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Days-Inn-By-Wyndham-Castaic-Six-Flags-Magic-Mountain.h20602.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_187.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_187.xlsx
@@ -6899,7 +6899,7 @@
         <v>15818</v>
       </c>
       <c r="B2" t="n">
-        <v>134768</v>
+        <v>165664</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -6968,7 +6968,7 @@
         <v>15818</v>
       </c>
       <c r="B3" t="n">
-        <v>134769</v>
+        <v>165665</v>
       </c>
       <c r="C3" t="s">
         <v>55</v>
@@ -7039,7 +7039,7 @@
         <v>15818</v>
       </c>
       <c r="B4" t="n">
-        <v>134770</v>
+        <v>165666</v>
       </c>
       <c r="C4" t="s">
         <v>62</v>
@@ -7110,7 +7110,7 @@
         <v>15818</v>
       </c>
       <c r="B5" t="n">
-        <v>134771</v>
+        <v>165667</v>
       </c>
       <c r="C5" t="s">
         <v>69</v>
@@ -7181,7 +7181,7 @@
         <v>15818</v>
       </c>
       <c r="B6" t="n">
-        <v>134772</v>
+        <v>165668</v>
       </c>
       <c r="C6" t="s">
         <v>77</v>
@@ -7252,7 +7252,7 @@
         <v>15818</v>
       </c>
       <c r="B7" t="n">
-        <v>134773</v>
+        <v>165669</v>
       </c>
       <c r="C7" t="s">
         <v>83</v>
@@ -7323,7 +7323,7 @@
         <v>15818</v>
       </c>
       <c r="B8" t="n">
-        <v>134774</v>
+        <v>165670</v>
       </c>
       <c r="C8" t="s">
         <v>89</v>
@@ -7465,7 +7465,7 @@
         <v>15818</v>
       </c>
       <c r="B10" t="n">
-        <v>134775</v>
+        <v>165671</v>
       </c>
       <c r="C10" t="s">
         <v>104</v>
@@ -7536,7 +7536,7 @@
         <v>15818</v>
       </c>
       <c r="B11" t="n">
-        <v>134776</v>
+        <v>165672</v>
       </c>
       <c r="C11" t="s">
         <v>110</v>
@@ -7607,7 +7607,7 @@
         <v>15818</v>
       </c>
       <c r="B12" t="n">
-        <v>134777</v>
+        <v>165673</v>
       </c>
       <c r="C12" t="s">
         <v>117</v>
@@ -7678,7 +7678,7 @@
         <v>15818</v>
       </c>
       <c r="B13" t="n">
-        <v>134778</v>
+        <v>165674</v>
       </c>
       <c r="C13" t="s">
         <v>123</v>
@@ -7749,7 +7749,7 @@
         <v>15818</v>
       </c>
       <c r="B14" t="n">
-        <v>134779</v>
+        <v>165675</v>
       </c>
       <c r="C14" t="s">
         <v>129</v>
@@ -7820,7 +7820,7 @@
         <v>15818</v>
       </c>
       <c r="B15" t="n">
-        <v>134780</v>
+        <v>165676</v>
       </c>
       <c r="C15" t="s">
         <v>136</v>
@@ -7891,7 +7891,7 @@
         <v>15818</v>
       </c>
       <c r="B16" t="n">
-        <v>134781</v>
+        <v>165677</v>
       </c>
       <c r="C16" t="s">
         <v>142</v>
@@ -7962,7 +7962,7 @@
         <v>15818</v>
       </c>
       <c r="B17" t="n">
-        <v>134782</v>
+        <v>165678</v>
       </c>
       <c r="C17" t="s">
         <v>147</v>
@@ -8104,7 +8104,7 @@
         <v>15818</v>
       </c>
       <c r="B19" t="n">
-        <v>134783</v>
+        <v>165679</v>
       </c>
       <c r="C19" t="s">
         <v>160</v>
@@ -8175,7 +8175,7 @@
         <v>15818</v>
       </c>
       <c r="B20" t="n">
-        <v>134784</v>
+        <v>165680</v>
       </c>
       <c r="C20" t="s">
         <v>165</v>
@@ -8317,7 +8317,7 @@
         <v>15818</v>
       </c>
       <c r="B22" t="n">
-        <v>134785</v>
+        <v>165681</v>
       </c>
       <c r="C22" t="s">
         <v>177</v>
@@ -8388,7 +8388,7 @@
         <v>15818</v>
       </c>
       <c r="B23" t="n">
-        <v>134786</v>
+        <v>165682</v>
       </c>
       <c r="C23" t="s">
         <v>183</v>
@@ -8524,7 +8524,7 @@
         <v>15818</v>
       </c>
       <c r="B25" t="n">
-        <v>134787</v>
+        <v>165683</v>
       </c>
       <c r="C25" t="s">
         <v>197</v>
@@ -8595,7 +8595,7 @@
         <v>15818</v>
       </c>
       <c r="B26" t="n">
-        <v>134788</v>
+        <v>165684</v>
       </c>
       <c r="C26" t="s">
         <v>203</v>
@@ -8666,7 +8666,7 @@
         <v>15818</v>
       </c>
       <c r="B27" t="n">
-        <v>134789</v>
+        <v>165685</v>
       </c>
       <c r="C27" t="s">
         <v>210</v>
@@ -8798,7 +8798,7 @@
         <v>15818</v>
       </c>
       <c r="B29" t="n">
-        <v>134790</v>
+        <v>165686</v>
       </c>
       <c r="C29" t="s">
         <v>222</v>
@@ -8869,7 +8869,7 @@
         <v>15818</v>
       </c>
       <c r="B30" t="n">
-        <v>134791</v>
+        <v>165687</v>
       </c>
       <c r="C30" t="s">
         <v>229</v>
@@ -8940,7 +8940,7 @@
         <v>15818</v>
       </c>
       <c r="B31" t="n">
-        <v>134792</v>
+        <v>165688</v>
       </c>
       <c r="C31" t="s">
         <v>235</v>
@@ -9005,7 +9005,7 @@
         <v>15818</v>
       </c>
       <c r="B32" t="n">
-        <v>134793</v>
+        <v>165689</v>
       </c>
       <c r="C32" t="s">
         <v>240</v>
@@ -9066,7 +9066,7 @@
         <v>15818</v>
       </c>
       <c r="B33" t="n">
-        <v>134794</v>
+        <v>165690</v>
       </c>
       <c r="C33" t="s">
         <v>247</v>
@@ -9208,7 +9208,7 @@
         <v>15818</v>
       </c>
       <c r="B35" t="n">
-        <v>134795</v>
+        <v>165691</v>
       </c>
       <c r="C35" t="s">
         <v>259</v>
@@ -9279,7 +9279,7 @@
         <v>15818</v>
       </c>
       <c r="B36" t="n">
-        <v>134796</v>
+        <v>165692</v>
       </c>
       <c r="C36" t="s">
         <v>266</v>
@@ -9350,7 +9350,7 @@
         <v>15818</v>
       </c>
       <c r="B37" t="n">
-        <v>134797</v>
+        <v>165693</v>
       </c>
       <c r="C37" t="s">
         <v>272</v>
@@ -9421,7 +9421,7 @@
         <v>15818</v>
       </c>
       <c r="B38" t="n">
-        <v>134798</v>
+        <v>165694</v>
       </c>
       <c r="C38" t="s">
         <v>278</v>
@@ -9492,7 +9492,7 @@
         <v>15818</v>
       </c>
       <c r="B39" t="n">
-        <v>134799</v>
+        <v>165695</v>
       </c>
       <c r="C39" t="s">
         <v>284</v>
@@ -9563,7 +9563,7 @@
         <v>15818</v>
       </c>
       <c r="B40" t="n">
-        <v>134800</v>
+        <v>165696</v>
       </c>
       <c r="C40" t="s">
         <v>290</v>
@@ -9634,7 +9634,7 @@
         <v>15818</v>
       </c>
       <c r="B41" t="n">
-        <v>134801</v>
+        <v>165697</v>
       </c>
       <c r="C41" t="s">
         <v>296</v>
@@ -9705,7 +9705,7 @@
         <v>15818</v>
       </c>
       <c r="B42" t="n">
-        <v>134802</v>
+        <v>165698</v>
       </c>
       <c r="C42" t="s">
         <v>303</v>
@@ -9776,7 +9776,7 @@
         <v>15818</v>
       </c>
       <c r="B43" t="n">
-        <v>134803</v>
+        <v>165699</v>
       </c>
       <c r="C43" t="s">
         <v>308</v>
@@ -9847,7 +9847,7 @@
         <v>15818</v>
       </c>
       <c r="B44" t="n">
-        <v>134804</v>
+        <v>165700</v>
       </c>
       <c r="C44" t="s">
         <v>313</v>
@@ -9918,7 +9918,7 @@
         <v>15818</v>
       </c>
       <c r="B45" t="n">
-        <v>134805</v>
+        <v>165701</v>
       </c>
       <c r="C45" t="s">
         <v>319</v>
@@ -9989,7 +9989,7 @@
         <v>15818</v>
       </c>
       <c r="B46" t="n">
-        <v>134806</v>
+        <v>165702</v>
       </c>
       <c r="C46" t="s">
         <v>325</v>
@@ -10060,7 +10060,7 @@
         <v>15818</v>
       </c>
       <c r="B47" t="n">
-        <v>134807</v>
+        <v>165703</v>
       </c>
       <c r="C47" t="s">
         <v>331</v>
@@ -10131,7 +10131,7 @@
         <v>15818</v>
       </c>
       <c r="B48" t="n">
-        <v>134808</v>
+        <v>165704</v>
       </c>
       <c r="C48" t="s">
         <v>337</v>
@@ -10344,7 +10344,7 @@
         <v>15818</v>
       </c>
       <c r="B51" t="n">
-        <v>134809</v>
+        <v>165705</v>
       </c>
       <c r="C51" t="s">
         <v>357</v>
@@ -10415,7 +10415,7 @@
         <v>15818</v>
       </c>
       <c r="B52" t="n">
-        <v>134810</v>
+        <v>165706</v>
       </c>
       <c r="C52" t="s">
         <v>362</v>
@@ -10486,7 +10486,7 @@
         <v>15818</v>
       </c>
       <c r="B53" t="n">
-        <v>134811</v>
+        <v>165707</v>
       </c>
       <c r="C53" t="s">
         <v>368</v>
@@ -10557,7 +10557,7 @@
         <v>15818</v>
       </c>
       <c r="B54" t="n">
-        <v>134812</v>
+        <v>165708</v>
       </c>
       <c r="C54" t="s">
         <v>374</v>
@@ -10628,7 +10628,7 @@
         <v>15818</v>
       </c>
       <c r="B55" t="n">
-        <v>134813</v>
+        <v>165709</v>
       </c>
       <c r="C55" t="s">
         <v>380</v>
@@ -10699,7 +10699,7 @@
         <v>15818</v>
       </c>
       <c r="B56" t="n">
-        <v>134814</v>
+        <v>165710</v>
       </c>
       <c r="C56" t="s">
         <v>386</v>
@@ -10770,7 +10770,7 @@
         <v>15818</v>
       </c>
       <c r="B57" t="n">
-        <v>134815</v>
+        <v>165711</v>
       </c>
       <c r="C57" t="s">
         <v>393</v>
@@ -10841,7 +10841,7 @@
         <v>15818</v>
       </c>
       <c r="B58" t="n">
-        <v>134816</v>
+        <v>165712</v>
       </c>
       <c r="C58" t="s">
         <v>398</v>
@@ -10912,7 +10912,7 @@
         <v>15818</v>
       </c>
       <c r="B59" t="n">
-        <v>134817</v>
+        <v>165713</v>
       </c>
       <c r="C59" t="s">
         <v>404</v>
@@ -11054,7 +11054,7 @@
         <v>15818</v>
       </c>
       <c r="B61" t="n">
-        <v>134818</v>
+        <v>165714</v>
       </c>
       <c r="C61" t="s">
         <v>416</v>
@@ -11125,7 +11125,7 @@
         <v>15818</v>
       </c>
       <c r="B62" t="n">
-        <v>134819</v>
+        <v>165715</v>
       </c>
       <c r="C62" t="s">
         <v>422</v>
@@ -11196,7 +11196,7 @@
         <v>15818</v>
       </c>
       <c r="B63" t="n">
-        <v>134820</v>
+        <v>165716</v>
       </c>
       <c r="C63" t="s">
         <v>427</v>
@@ -11267,7 +11267,7 @@
         <v>15818</v>
       </c>
       <c r="B64" t="n">
-        <v>134821</v>
+        <v>165717</v>
       </c>
       <c r="C64" t="s">
         <v>432</v>
@@ -11338,7 +11338,7 @@
         <v>15818</v>
       </c>
       <c r="B65" t="n">
-        <v>134822</v>
+        <v>165718</v>
       </c>
       <c r="C65" t="s">
         <v>439</v>
@@ -11409,7 +11409,7 @@
         <v>15818</v>
       </c>
       <c r="B66" t="n">
-        <v>134823</v>
+        <v>165719</v>
       </c>
       <c r="C66" t="s">
         <v>446</v>
@@ -11480,7 +11480,7 @@
         <v>15818</v>
       </c>
       <c r="B67" t="n">
-        <v>134824</v>
+        <v>165720</v>
       </c>
       <c r="C67" t="s">
         <v>453</v>
@@ -11551,7 +11551,7 @@
         <v>15818</v>
       </c>
       <c r="B68" t="n">
-        <v>134825</v>
+        <v>165721</v>
       </c>
       <c r="C68" t="s">
         <v>459</v>
@@ -11620,7 +11620,7 @@
         <v>15818</v>
       </c>
       <c r="B69" t="n">
-        <v>134826</v>
+        <v>165722</v>
       </c>
       <c r="C69" t="s">
         <v>465</v>
@@ -11691,7 +11691,7 @@
         <v>15818</v>
       </c>
       <c r="B70" t="n">
-        <v>134827</v>
+        <v>165723</v>
       </c>
       <c r="C70" t="s">
         <v>472</v>
@@ -11752,7 +11752,7 @@
         <v>15818</v>
       </c>
       <c r="B71" t="n">
-        <v>134828</v>
+        <v>165724</v>
       </c>
       <c r="C71" t="s">
         <v>478</v>
@@ -11823,7 +11823,7 @@
         <v>15818</v>
       </c>
       <c r="B72" t="n">
-        <v>134829</v>
+        <v>165725</v>
       </c>
       <c r="C72" t="s">
         <v>484</v>
@@ -11965,7 +11965,7 @@
         <v>15818</v>
       </c>
       <c r="B74" t="n">
-        <v>134830</v>
+        <v>165726</v>
       </c>
       <c r="C74" t="s">
         <v>497</v>
@@ -12103,7 +12103,7 @@
         <v>15818</v>
       </c>
       <c r="B76" t="n">
-        <v>134831</v>
+        <v>165727</v>
       </c>
       <c r="C76" t="s">
         <v>510</v>
@@ -12164,7 +12164,7 @@
         <v>15818</v>
       </c>
       <c r="B77" t="n">
-        <v>134832</v>
+        <v>165728</v>
       </c>
       <c r="C77" t="s">
         <v>516</v>
@@ -12296,7 +12296,7 @@
         <v>15818</v>
       </c>
       <c r="B79" t="n">
-        <v>134833</v>
+        <v>165729</v>
       </c>
       <c r="C79" t="s">
         <v>528</v>
@@ -12367,7 +12367,7 @@
         <v>15818</v>
       </c>
       <c r="B80" t="n">
-        <v>134834</v>
+        <v>165730</v>
       </c>
       <c r="C80" t="s">
         <v>534</v>
@@ -12438,7 +12438,7 @@
         <v>15818</v>
       </c>
       <c r="B81" t="n">
-        <v>134835</v>
+        <v>165731</v>
       </c>
       <c r="C81" t="s">
         <v>541</v>
@@ -12509,7 +12509,7 @@
         <v>15818</v>
       </c>
       <c r="B82" t="n">
-        <v>134836</v>
+        <v>165732</v>
       </c>
       <c r="C82" t="s">
         <v>548</v>
@@ -12641,7 +12641,7 @@
         <v>15818</v>
       </c>
       <c r="B84" t="n">
-        <v>134837</v>
+        <v>165733</v>
       </c>
       <c r="C84" t="s">
         <v>561</v>
@@ -12712,7 +12712,7 @@
         <v>15818</v>
       </c>
       <c r="B85" t="n">
-        <v>134838</v>
+        <v>165734</v>
       </c>
       <c r="C85" t="s">
         <v>568</v>
@@ -12779,7 +12779,7 @@
         <v>15818</v>
       </c>
       <c r="B86" t="n">
-        <v>134839</v>
+        <v>165735</v>
       </c>
       <c r="C86" t="s">
         <v>575</v>
@@ -12850,7 +12850,7 @@
         <v>15818</v>
       </c>
       <c r="B87" t="n">
-        <v>134840</v>
+        <v>165736</v>
       </c>
       <c r="C87" t="s">
         <v>581</v>
@@ -12988,7 +12988,7 @@
         <v>15818</v>
       </c>
       <c r="B89" t="n">
-        <v>134841</v>
+        <v>165737</v>
       </c>
       <c r="C89" t="s">
         <v>593</v>
@@ -13059,7 +13059,7 @@
         <v>15818</v>
       </c>
       <c r="B90" t="n">
-        <v>134842</v>
+        <v>165738</v>
       </c>
       <c r="C90" t="s">
         <v>600</v>
@@ -13130,7 +13130,7 @@
         <v>15818</v>
       </c>
       <c r="B91" t="n">
-        <v>134843</v>
+        <v>165739</v>
       </c>
       <c r="C91" t="s">
         <v>606</v>
@@ -13201,7 +13201,7 @@
         <v>15818</v>
       </c>
       <c r="B92" t="n">
-        <v>134844</v>
+        <v>165740</v>
       </c>
       <c r="C92" t="s">
         <v>612</v>
@@ -13343,7 +13343,7 @@
         <v>15818</v>
       </c>
       <c r="B94" t="n">
-        <v>134845</v>
+        <v>165741</v>
       </c>
       <c r="C94" t="s">
         <v>624</v>
@@ -13408,7 +13408,7 @@
         <v>15818</v>
       </c>
       <c r="B95" t="n">
-        <v>134846</v>
+        <v>165742</v>
       </c>
       <c r="C95" t="s">
         <v>631</v>
@@ -13479,7 +13479,7 @@
         <v>15818</v>
       </c>
       <c r="B96" t="n">
-        <v>134847</v>
+        <v>165743</v>
       </c>
       <c r="C96" t="s">
         <v>638</v>
@@ -13692,7 +13692,7 @@
         <v>15818</v>
       </c>
       <c r="B99" t="n">
-        <v>134848</v>
+        <v>165744</v>
       </c>
       <c r="C99" t="s">
         <v>658</v>
@@ -13763,7 +13763,7 @@
         <v>15818</v>
       </c>
       <c r="B100" t="n">
-        <v>134849</v>
+        <v>165745</v>
       </c>
       <c r="C100" t="s">
         <v>665</v>
@@ -13834,7 +13834,7 @@
         <v>15818</v>
       </c>
       <c r="B101" t="n">
-        <v>134850</v>
+        <v>165746</v>
       </c>
       <c r="C101" t="s">
         <v>672</v>
@@ -13905,7 +13905,7 @@
         <v>15818</v>
       </c>
       <c r="B102" t="n">
-        <v>134851</v>
+        <v>165747</v>
       </c>
       <c r="C102" t="s">
         <v>679</v>
@@ -13966,7 +13966,7 @@
         <v>15818</v>
       </c>
       <c r="B103" t="n">
-        <v>134852</v>
+        <v>165748</v>
       </c>
       <c r="C103" t="s">
         <v>685</v>
@@ -14108,7 +14108,7 @@
         <v>15818</v>
       </c>
       <c r="B105" t="n">
-        <v>134853</v>
+        <v>165749</v>
       </c>
       <c r="C105" t="s">
         <v>698</v>
@@ -14179,7 +14179,7 @@
         <v>15818</v>
       </c>
       <c r="B106" t="n">
-        <v>134854</v>
+        <v>165750</v>
       </c>
       <c r="C106" t="s">
         <v>704</v>
@@ -14250,7 +14250,7 @@
         <v>15818</v>
       </c>
       <c r="B107" t="n">
-        <v>134855</v>
+        <v>165751</v>
       </c>
       <c r="C107" t="s">
         <v>711</v>
@@ -14392,7 +14392,7 @@
         <v>15818</v>
       </c>
       <c r="B109" t="n">
-        <v>134856</v>
+        <v>165752</v>
       </c>
       <c r="C109" t="s">
         <v>723</v>
@@ -14463,7 +14463,7 @@
         <v>15818</v>
       </c>
       <c r="B110" t="n">
-        <v>134857</v>
+        <v>165753</v>
       </c>
       <c r="C110" t="s">
         <v>729</v>
@@ -14534,7 +14534,7 @@
         <v>15818</v>
       </c>
       <c r="B111" t="n">
-        <v>134858</v>
+        <v>165754</v>
       </c>
       <c r="C111" t="s">
         <v>736</v>
@@ -14676,7 +14676,7 @@
         <v>15818</v>
       </c>
       <c r="B113" t="n">
-        <v>134859</v>
+        <v>165755</v>
       </c>
       <c r="C113" t="s">
         <v>747</v>
@@ -14737,7 +14737,7 @@
         <v>15818</v>
       </c>
       <c r="B114" t="n">
-        <v>134860</v>
+        <v>165756</v>
       </c>
       <c r="C114" t="s">
         <v>754</v>
@@ -14879,7 +14879,7 @@
         <v>15818</v>
       </c>
       <c r="B116" t="n">
-        <v>134861</v>
+        <v>165757</v>
       </c>
       <c r="C116" t="s">
         <v>765</v>
@@ -15015,7 +15015,7 @@
         <v>15818</v>
       </c>
       <c r="B118" t="n">
-        <v>134862</v>
+        <v>165758</v>
       </c>
       <c r="C118" t="s">
         <v>777</v>
@@ -15157,7 +15157,7 @@
         <v>15818</v>
       </c>
       <c r="B120" t="n">
-        <v>134863</v>
+        <v>165759</v>
       </c>
       <c r="C120" t="s">
         <v>789</v>
@@ -15228,7 +15228,7 @@
         <v>15818</v>
       </c>
       <c r="B121" t="n">
-        <v>134864</v>
+        <v>165760</v>
       </c>
       <c r="C121" t="s">
         <v>794</v>
@@ -15299,7 +15299,7 @@
         <v>15818</v>
       </c>
       <c r="B122" t="n">
-        <v>134865</v>
+        <v>165761</v>
       </c>
       <c r="C122" t="s">
         <v>800</v>
@@ -15431,7 +15431,7 @@
         <v>15818</v>
       </c>
       <c r="B124" t="n">
-        <v>134866</v>
+        <v>165762</v>
       </c>
       <c r="C124" t="s">
         <v>815</v>
@@ -15502,7 +15502,7 @@
         <v>15818</v>
       </c>
       <c r="B125" t="n">
-        <v>134867</v>
+        <v>165763</v>
       </c>
       <c r="C125" t="s">
         <v>821</v>
@@ -15573,7 +15573,7 @@
         <v>15818</v>
       </c>
       <c r="B126" t="n">
-        <v>134868</v>
+        <v>165764</v>
       </c>
       <c r="C126" t="s">
         <v>828</v>
@@ -15644,7 +15644,7 @@
         <v>15818</v>
       </c>
       <c r="B127" t="n">
-        <v>134869</v>
+        <v>165765</v>
       </c>
       <c r="C127" t="s">
         <v>833</v>
@@ -15715,7 +15715,7 @@
         <v>15818</v>
       </c>
       <c r="B128" t="n">
-        <v>134870</v>
+        <v>165766</v>
       </c>
       <c r="C128" t="s">
         <v>839</v>
@@ -15786,7 +15786,7 @@
         <v>15818</v>
       </c>
       <c r="B129" t="n">
-        <v>134871</v>
+        <v>165767</v>
       </c>
       <c r="C129" t="s">
         <v>846</v>
@@ -15857,7 +15857,7 @@
         <v>15818</v>
       </c>
       <c r="B130" t="n">
-        <v>134872</v>
+        <v>165768</v>
       </c>
       <c r="C130" t="s">
         <v>852</v>
@@ -15928,7 +15928,7 @@
         <v>15818</v>
       </c>
       <c r="B131" t="n">
-        <v>134873</v>
+        <v>165769</v>
       </c>
       <c r="C131" t="s">
         <v>858</v>
@@ -15999,7 +15999,7 @@
         <v>15818</v>
       </c>
       <c r="B132" t="n">
-        <v>134874</v>
+        <v>165770</v>
       </c>
       <c r="C132" t="s">
         <v>864</v>
@@ -16141,7 +16141,7 @@
         <v>15818</v>
       </c>
       <c r="B134" t="n">
-        <v>134875</v>
+        <v>165771</v>
       </c>
       <c r="C134" t="s">
         <v>876</v>
@@ -16206,7 +16206,7 @@
         <v>15818</v>
       </c>
       <c r="B135" t="n">
-        <v>134876</v>
+        <v>165772</v>
       </c>
       <c r="C135" t="s">
         <v>883</v>
@@ -16277,7 +16277,7 @@
         <v>15818</v>
       </c>
       <c r="B136" t="n">
-        <v>134877</v>
+        <v>165773</v>
       </c>
       <c r="C136" t="s">
         <v>890</v>
@@ -16348,7 +16348,7 @@
         <v>15818</v>
       </c>
       <c r="B137" t="n">
-        <v>134878</v>
+        <v>165774</v>
       </c>
       <c r="C137" t="s">
         <v>895</v>
@@ -16419,7 +16419,7 @@
         <v>15818</v>
       </c>
       <c r="B138" t="n">
-        <v>134879</v>
+        <v>165775</v>
       </c>
       <c r="C138" t="s">
         <v>902</v>
@@ -16490,7 +16490,7 @@
         <v>15818</v>
       </c>
       <c r="B139" t="n">
-        <v>134880</v>
+        <v>165776</v>
       </c>
       <c r="C139" t="s">
         <v>908</v>
@@ -16561,7 +16561,7 @@
         <v>15818</v>
       </c>
       <c r="B140" t="n">
-        <v>134881</v>
+        <v>165777</v>
       </c>
       <c r="C140" t="s">
         <v>913</v>
@@ -16632,7 +16632,7 @@
         <v>15818</v>
       </c>
       <c r="B141" t="n">
-        <v>134882</v>
+        <v>165778</v>
       </c>
       <c r="C141" t="s">
         <v>919</v>
@@ -16774,7 +16774,7 @@
         <v>15818</v>
       </c>
       <c r="B143" t="n">
-        <v>134883</v>
+        <v>165779</v>
       </c>
       <c r="C143" t="s">
         <v>931</v>
@@ -16845,7 +16845,7 @@
         <v>15818</v>
       </c>
       <c r="B144" t="n">
-        <v>134884</v>
+        <v>165780</v>
       </c>
       <c r="C144" t="s">
         <v>938</v>
@@ -16916,7 +16916,7 @@
         <v>15818</v>
       </c>
       <c r="B145" t="n">
-        <v>134885</v>
+        <v>165781</v>
       </c>
       <c r="C145" t="s">
         <v>944</v>
@@ -17044,7 +17044,7 @@
         <v>15818</v>
       </c>
       <c r="B147" t="n">
-        <v>134886</v>
+        <v>165782</v>
       </c>
       <c r="C147" t="s">
         <v>957</v>
@@ -17115,7 +17115,7 @@
         <v>15818</v>
       </c>
       <c r="B148" t="n">
-        <v>134887</v>
+        <v>165783</v>
       </c>
       <c r="C148" t="s">
         <v>963</v>
@@ -17322,7 +17322,7 @@
         <v>15818</v>
       </c>
       <c r="B151" t="n">
-        <v>134888</v>
+        <v>165784</v>
       </c>
       <c r="C151" t="s">
         <v>983</v>
@@ -17454,7 +17454,7 @@
         <v>15818</v>
       </c>
       <c r="B153" t="n">
-        <v>134889</v>
+        <v>165785</v>
       </c>
       <c r="C153" t="s">
         <v>995</v>
@@ -17525,7 +17525,7 @@
         <v>15818</v>
       </c>
       <c r="B154" t="n">
-        <v>134890</v>
+        <v>165786</v>
       </c>
       <c r="C154" t="s">
         <v>1001</v>
@@ -17596,7 +17596,7 @@
         <v>15818</v>
       </c>
       <c r="B155" t="n">
-        <v>134891</v>
+        <v>165787</v>
       </c>
       <c r="C155" t="s">
         <v>1008</v>
@@ -17661,7 +17661,7 @@
         <v>15818</v>
       </c>
       <c r="B156" t="n">
-        <v>134892</v>
+        <v>165788</v>
       </c>
       <c r="C156" t="s">
         <v>1014</v>
@@ -17726,7 +17726,7 @@
         <v>15818</v>
       </c>
       <c r="B157" t="n">
-        <v>134893</v>
+        <v>165789</v>
       </c>
       <c r="C157" t="s">
         <v>1020</v>
@@ -17787,7 +17787,7 @@
         <v>15818</v>
       </c>
       <c r="B158" t="n">
-        <v>134894</v>
+        <v>165790</v>
       </c>
       <c r="C158" t="s">
         <v>1026</v>
@@ -17858,7 +17858,7 @@
         <v>15818</v>
       </c>
       <c r="B159" t="n">
-        <v>134895</v>
+        <v>165791</v>
       </c>
       <c r="C159" t="s">
         <v>1032</v>
@@ -17923,7 +17923,7 @@
         <v>15818</v>
       </c>
       <c r="B160" t="n">
-        <v>134896</v>
+        <v>165792</v>
       </c>
       <c r="C160" t="s">
         <v>1040</v>
@@ -17994,7 +17994,7 @@
         <v>15818</v>
       </c>
       <c r="B161" t="n">
-        <v>134897</v>
+        <v>165793</v>
       </c>
       <c r="C161" t="s">
         <v>1046</v>
@@ -18065,7 +18065,7 @@
         <v>15818</v>
       </c>
       <c r="B162" t="n">
-        <v>134898</v>
+        <v>165794</v>
       </c>
       <c r="C162" t="s">
         <v>1052</v>
@@ -18207,7 +18207,7 @@
         <v>15818</v>
       </c>
       <c r="B164" t="n">
-        <v>134899</v>
+        <v>165795</v>
       </c>
       <c r="C164" t="s">
         <v>1063</v>
@@ -18274,7 +18274,7 @@
         <v>15818</v>
       </c>
       <c r="B165" t="n">
-        <v>134900</v>
+        <v>165796</v>
       </c>
       <c r="C165" t="s">
         <v>1069</v>
@@ -18345,7 +18345,7 @@
         <v>15818</v>
       </c>
       <c r="B166" t="n">
-        <v>134901</v>
+        <v>165797</v>
       </c>
       <c r="C166" t="s">
         <v>1075</v>
@@ -18479,7 +18479,7 @@
         <v>15818</v>
       </c>
       <c r="B168" t="n">
-        <v>134902</v>
+        <v>165798</v>
       </c>
       <c r="C168" t="s">
         <v>1086</v>
@@ -18546,7 +18546,7 @@
         <v>15818</v>
       </c>
       <c r="B169" t="n">
-        <v>134903</v>
+        <v>165799</v>
       </c>
       <c r="C169" t="s">
         <v>1093</v>
@@ -18608,7 +18608,7 @@
         <v>15818</v>
       </c>
       <c r="B170" t="n">
-        <v>134904</v>
+        <v>165800</v>
       </c>
       <c r="C170" t="s">
         <v>1097</v>
@@ -18671,7 +18671,7 @@
         <v>15818</v>
       </c>
       <c r="B171" t="n">
-        <v>134905</v>
+        <v>165801</v>
       </c>
       <c r="C171" t="s">
         <v>1103</v>
@@ -18734,7 +18734,7 @@
         <v>15818</v>
       </c>
       <c r="B172" t="n">
-        <v>134906</v>
+        <v>165802</v>
       </c>
       <c r="C172" t="s">
         <v>1109</v>
@@ -18805,7 +18805,7 @@
         <v>15818</v>
       </c>
       <c r="B173" t="n">
-        <v>134907</v>
+        <v>165803</v>
       </c>
       <c r="C173" t="s">
         <v>1117</v>
@@ -18876,7 +18876,7 @@
         <v>15818</v>
       </c>
       <c r="B174" t="n">
-        <v>134908</v>
+        <v>165804</v>
       </c>
       <c r="C174" t="s">
         <v>1123</v>
@@ -18947,7 +18947,7 @@
         <v>15818</v>
       </c>
       <c r="B175" t="n">
-        <v>134909</v>
+        <v>165805</v>
       </c>
       <c r="C175" t="s">
         <v>1129</v>
@@ -19089,7 +19089,7 @@
         <v>15818</v>
       </c>
       <c r="B177" t="n">
-        <v>134910</v>
+        <v>165806</v>
       </c>
       <c r="C177" t="s">
         <v>1141</v>
@@ -19160,7 +19160,7 @@
         <v>15818</v>
       </c>
       <c r="B178" t="n">
-        <v>134911</v>
+        <v>165807</v>
       </c>
       <c r="C178" t="s">
         <v>1147</v>
@@ -19231,7 +19231,7 @@
         <v>15818</v>
       </c>
       <c r="B179" t="n">
-        <v>134912</v>
+        <v>165808</v>
       </c>
       <c r="C179" t="s">
         <v>1153</v>
@@ -19296,7 +19296,7 @@
         <v>15818</v>
       </c>
       <c r="B180" t="n">
-        <v>134913</v>
+        <v>165809</v>
       </c>
       <c r="C180" t="s">
         <v>1160</v>
@@ -19367,7 +19367,7 @@
         <v>15818</v>
       </c>
       <c r="B181" t="n">
-        <v>134914</v>
+        <v>165810</v>
       </c>
       <c r="C181" t="s">
         <v>1167</v>
@@ -19436,7 +19436,7 @@
         <v>15818</v>
       </c>
       <c r="B182" t="n">
-        <v>134915</v>
+        <v>165811</v>
       </c>
       <c r="C182" t="s">
         <v>1171</v>
@@ -19507,7 +19507,7 @@
         <v>15818</v>
       </c>
       <c r="B183" t="n">
-        <v>134916</v>
+        <v>165812</v>
       </c>
       <c r="C183" t="s">
         <v>1178</v>
@@ -19568,7 +19568,7 @@
         <v>15818</v>
       </c>
       <c r="B184" t="n">
-        <v>134917</v>
+        <v>165813</v>
       </c>
       <c r="C184" t="s">
         <v>1184</v>
@@ -19635,7 +19635,7 @@
         <v>15818</v>
       </c>
       <c r="B185" t="n">
-        <v>134918</v>
+        <v>165814</v>
       </c>
       <c r="C185" t="s">
         <v>1190</v>
@@ -19706,7 +19706,7 @@
         <v>15818</v>
       </c>
       <c r="B186" t="n">
-        <v>134919</v>
+        <v>165815</v>
       </c>
       <c r="C186" t="s">
         <v>1196</v>
@@ -19777,7 +19777,7 @@
         <v>15818</v>
       </c>
       <c r="B187" t="n">
-        <v>134920</v>
+        <v>165816</v>
       </c>
       <c r="C187" t="s">
         <v>1202</v>
@@ -19909,7 +19909,7 @@
         <v>15818</v>
       </c>
       <c r="B189" t="n">
-        <v>134921</v>
+        <v>165817</v>
       </c>
       <c r="C189" t="s">
         <v>1215</v>
@@ -20038,7 +20038,7 @@
         <v>15818</v>
       </c>
       <c r="B191" t="n">
-        <v>134922</v>
+        <v>165818</v>
       </c>
       <c r="C191" t="s">
         <v>1227</v>
@@ -20109,7 +20109,7 @@
         <v>15818</v>
       </c>
       <c r="B192" t="n">
-        <v>134923</v>
+        <v>165819</v>
       </c>
       <c r="C192" t="s">
         <v>1233</v>
@@ -20251,7 +20251,7 @@
         <v>15818</v>
       </c>
       <c r="B194" t="n">
-        <v>134924</v>
+        <v>165820</v>
       </c>
       <c r="C194" t="s">
         <v>1244</v>
@@ -20318,7 +20318,7 @@
         <v>15818</v>
       </c>
       <c r="B195" t="n">
-        <v>134925</v>
+        <v>165821</v>
       </c>
       <c r="C195" t="s">
         <v>1251</v>
@@ -20515,7 +20515,7 @@
         <v>15818</v>
       </c>
       <c r="B198" t="n">
-        <v>134926</v>
+        <v>165822</v>
       </c>
       <c r="C198" t="s">
         <v>1270</v>
@@ -20586,7 +20586,7 @@
         <v>15818</v>
       </c>
       <c r="B199" t="n">
-        <v>134927</v>
+        <v>165823</v>
       </c>
       <c r="C199" t="s">
         <v>1275</v>
@@ -20728,7 +20728,7 @@
         <v>15818</v>
       </c>
       <c r="B201" t="n">
-        <v>134928</v>
+        <v>165824</v>
       </c>
       <c r="C201" t="s">
         <v>1288</v>
@@ -20856,7 +20856,7 @@
         <v>15818</v>
       </c>
       <c r="B203" t="n">
-        <v>134929</v>
+        <v>165825</v>
       </c>
       <c r="C203" t="s">
         <v>1302</v>
@@ -20917,7 +20917,7 @@
         <v>15818</v>
       </c>
       <c r="B204" t="n">
-        <v>134930</v>
+        <v>165826</v>
       </c>
       <c r="C204" t="s">
         <v>1309</v>
@@ -20988,7 +20988,7 @@
         <v>15818</v>
       </c>
       <c r="B205" t="n">
-        <v>134931</v>
+        <v>165827</v>
       </c>
       <c r="C205" t="s">
         <v>1316</v>
@@ -21057,7 +21057,7 @@
         <v>15818</v>
       </c>
       <c r="B206" t="n">
-        <v>134932</v>
+        <v>165828</v>
       </c>
       <c r="C206" t="s">
         <v>1322</v>
@@ -21118,7 +21118,7 @@
         <v>15818</v>
       </c>
       <c r="B207" t="n">
-        <v>134933</v>
+        <v>165829</v>
       </c>
       <c r="C207" t="s">
         <v>1328</v>
@@ -21179,7 +21179,7 @@
         <v>15818</v>
       </c>
       <c r="B208" t="n">
-        <v>134934</v>
+        <v>165830</v>
       </c>
       <c r="C208" t="s">
         <v>1334</v>
@@ -21321,7 +21321,7 @@
         <v>15818</v>
       </c>
       <c r="B210" t="n">
-        <v>134935</v>
+        <v>165831</v>
       </c>
       <c r="C210" t="s">
         <v>1345</v>
@@ -21463,7 +21463,7 @@
         <v>15818</v>
       </c>
       <c r="B212" t="n">
-        <v>134936</v>
+        <v>165832</v>
       </c>
       <c r="C212" t="s">
         <v>1357</v>
@@ -21605,7 +21605,7 @@
         <v>15818</v>
       </c>
       <c r="B214" t="n">
-        <v>134937</v>
+        <v>165833</v>
       </c>
       <c r="C214" t="s">
         <v>1369</v>
@@ -22003,7 +22003,7 @@
         <v>15818</v>
       </c>
       <c r="B220" t="n">
-        <v>134938</v>
+        <v>165834</v>
       </c>
       <c r="C220" t="s">
         <v>1406</v>
@@ -22070,7 +22070,7 @@
         <v>15818</v>
       </c>
       <c r="B221" t="n">
-        <v>134939</v>
+        <v>165835</v>
       </c>
       <c r="C221" t="s">
         <v>1412</v>
@@ -22132,7 +22132,7 @@
         <v>15818</v>
       </c>
       <c r="B222" t="n">
-        <v>134940</v>
+        <v>134820</v>
       </c>
       <c r="C222" t="s">
         <v>1416</v>
@@ -22203,7 +22203,7 @@
         <v>15818</v>
       </c>
       <c r="B223" t="n">
-        <v>134941</v>
+        <v>165836</v>
       </c>
       <c r="C223" t="s">
         <v>1424</v>
@@ -22341,7 +22341,7 @@
         <v>15818</v>
       </c>
       <c r="B225" t="n">
-        <v>134942</v>
+        <v>165837</v>
       </c>
       <c r="C225" t="s">
         <v>1435</v>
@@ -22412,7 +22412,7 @@
         <v>15818</v>
       </c>
       <c r="B226" t="n">
-        <v>134943</v>
+        <v>165838</v>
       </c>
       <c r="C226" t="s">
         <v>1440</v>
@@ -22483,7 +22483,7 @@
         <v>15818</v>
       </c>
       <c r="B227" t="n">
-        <v>134944</v>
+        <v>165839</v>
       </c>
       <c r="C227" t="s">
         <v>1446</v>
@@ -22550,7 +22550,7 @@
         <v>15818</v>
       </c>
       <c r="B228" t="n">
-        <v>134945</v>
+        <v>165840</v>
       </c>
       <c r="C228" t="s">
         <v>1453</v>
@@ -22621,7 +22621,7 @@
         <v>15818</v>
       </c>
       <c r="B229" t="n">
-        <v>134946</v>
+        <v>165841</v>
       </c>
       <c r="C229" t="s">
         <v>1458</v>
@@ -22692,7 +22692,7 @@
         <v>15818</v>
       </c>
       <c r="B230" t="n">
-        <v>134947</v>
+        <v>134844</v>
       </c>
       <c r="C230" t="s">
         <v>1464</v>
@@ -22759,7 +22759,7 @@
         <v>15818</v>
       </c>
       <c r="B231" t="n">
-        <v>134948</v>
+        <v>165842</v>
       </c>
       <c r="C231" t="s">
         <v>1472</v>
@@ -22830,7 +22830,7 @@
         <v>15818</v>
       </c>
       <c r="B232" t="n">
-        <v>134949</v>
+        <v>165843</v>
       </c>
       <c r="C232" t="s">
         <v>1478</v>
@@ -23179,7 +23179,7 @@
         <v>15818</v>
       </c>
       <c r="B237" t="n">
-        <v>134939</v>
+        <v>134820</v>
       </c>
       <c r="C237" t="s">
         <v>1416</v>
@@ -23537,7 +23537,7 @@
         <v>15818</v>
       </c>
       <c r="B242" t="n">
-        <v>134950</v>
+        <v>165844</v>
       </c>
       <c r="C242" t="s">
         <v>1547</v>
@@ -23741,7 +23741,7 @@
         <v>15818</v>
       </c>
       <c r="B245" t="n">
-        <v>134951</v>
+        <v>165845</v>
       </c>
       <c r="C245" t="s">
         <v>1563</v>
@@ -23812,7 +23812,7 @@
         <v>15818</v>
       </c>
       <c r="B246" t="n">
-        <v>134952</v>
+        <v>165846</v>
       </c>
       <c r="C246" t="s">
         <v>1569</v>
@@ -24165,7 +24165,7 @@
         <v>15818</v>
       </c>
       <c r="B251" t="n">
-        <v>134953</v>
+        <v>165847</v>
       </c>
       <c r="C251" t="s">
         <v>1598</v>
@@ -24662,7 +24662,7 @@
         <v>15818</v>
       </c>
       <c r="B258" t="n">
-        <v>134954</v>
+        <v>165848</v>
       </c>
       <c r="C258" t="s">
         <v>1642</v>
@@ -24733,7 +24733,7 @@
         <v>15818</v>
       </c>
       <c r="B259" t="n">
-        <v>134955</v>
+        <v>165849</v>
       </c>
       <c r="C259" t="s">
         <v>1648</v>
@@ -24875,7 +24875,7 @@
         <v>15818</v>
       </c>
       <c r="B261" t="n">
-        <v>134956</v>
+        <v>165850</v>
       </c>
       <c r="C261" t="s">
         <v>1661</v>
@@ -25221,7 +25221,7 @@
         <v>15818</v>
       </c>
       <c r="B266" t="n">
-        <v>134957</v>
+        <v>165851</v>
       </c>
       <c r="C266" t="s">
         <v>1689</v>
@@ -25371,7 +25371,7 @@
         <v>15818</v>
       </c>
       <c r="B268" t="n">
-        <v>134958</v>
+        <v>165852</v>
       </c>
       <c r="C268" t="s">
         <v>1705</v>
@@ -25509,7 +25509,7 @@
         <v>15818</v>
       </c>
       <c r="B270" t="n">
-        <v>134946</v>
+        <v>134844</v>
       </c>
       <c r="C270" t="s">
         <v>1464</v>
@@ -25651,7 +25651,7 @@
         <v>15818</v>
       </c>
       <c r="B272" t="n">
-        <v>134959</v>
+        <v>165853</v>
       </c>
       <c r="C272" t="s">
         <v>1732</v>
@@ -25860,7 +25860,7 @@
         <v>15818</v>
       </c>
       <c r="B275" t="n">
-        <v>134960</v>
+        <v>165854</v>
       </c>
       <c r="C275" t="s">
         <v>1749</v>
@@ -26142,7 +26142,7 @@
         <v>15818</v>
       </c>
       <c r="B279" t="n">
-        <v>134961</v>
+        <v>165855</v>
       </c>
       <c r="C279" t="s">
         <v>1774</v>
@@ -26337,7 +26337,7 @@
         <v>15818</v>
       </c>
       <c r="B282" t="n">
-        <v>134962</v>
+        <v>165856</v>
       </c>
       <c r="C282" t="s">
         <v>1788</v>
@@ -26408,7 +26408,7 @@
         <v>15818</v>
       </c>
       <c r="B283" t="n">
-        <v>134963</v>
+        <v>165857</v>
       </c>
       <c r="C283" t="s">
         <v>1793</v>
@@ -26479,7 +26479,7 @@
         <v>15818</v>
       </c>
       <c r="B284" t="n">
-        <v>134964</v>
+        <v>165858</v>
       </c>
       <c r="C284" t="s">
         <v>1799</v>
@@ -26682,7 +26682,7 @@
         <v>15818</v>
       </c>
       <c r="B287" t="n">
-        <v>134965</v>
+        <v>165859</v>
       </c>
       <c r="C287" t="s">
         <v>1819</v>
@@ -26895,7 +26895,7 @@
         <v>15818</v>
       </c>
       <c r="B290" t="n">
-        <v>134966</v>
+        <v>165860</v>
       </c>
       <c r="C290" t="s">
         <v>1839</v>
@@ -26966,7 +26966,7 @@
         <v>15818</v>
       </c>
       <c r="B291" t="n">
-        <v>134967</v>
+        <v>165861</v>
       </c>
       <c r="C291" t="s">
         <v>1847</v>
@@ -27108,7 +27108,7 @@
         <v>15818</v>
       </c>
       <c r="B293" t="n">
-        <v>134968</v>
+        <v>165862</v>
       </c>
       <c r="C293" t="s">
         <v>1860</v>
@@ -27179,7 +27179,7 @@
         <v>15818</v>
       </c>
       <c r="B294" t="n">
-        <v>134969</v>
+        <v>165863</v>
       </c>
       <c r="C294" t="s">
         <v>1868</v>
@@ -27250,7 +27250,7 @@
         <v>15818</v>
       </c>
       <c r="B295" t="n">
-        <v>134970</v>
+        <v>165864</v>
       </c>
       <c r="C295" t="s">
         <v>1873</v>
@@ -27321,7 +27321,7 @@
         <v>15818</v>
       </c>
       <c r="B296" t="n">
-        <v>134971</v>
+        <v>165865</v>
       </c>
       <c r="C296" t="s">
         <v>1880</v>
@@ -27392,7 +27392,7 @@
         <v>15818</v>
       </c>
       <c r="B297" t="n">
-        <v>134972</v>
+        <v>165866</v>
       </c>
       <c r="C297" t="s">
         <v>1886</v>
@@ -27534,7 +27534,7 @@
         <v>15818</v>
       </c>
       <c r="B299" t="n">
-        <v>134973</v>
+        <v>165867</v>
       </c>
       <c r="C299" t="s">
         <v>1898</v>
@@ -27676,7 +27676,7 @@
         <v>15818</v>
       </c>
       <c r="B301" t="n">
-        <v>134974</v>
+        <v>165868</v>
       </c>
       <c r="C301" t="s">
         <v>1912</v>
@@ -27737,7 +27737,7 @@
         <v>15818</v>
       </c>
       <c r="B302" t="n">
-        <v>134975</v>
+        <v>165869</v>
       </c>
       <c r="C302" t="s">
         <v>1919</v>
@@ -27808,7 +27808,7 @@
         <v>15818</v>
       </c>
       <c r="B303" t="n">
-        <v>134976</v>
+        <v>165870</v>
       </c>
       <c r="C303" t="s">
         <v>1927</v>
@@ -27879,7 +27879,7 @@
         <v>15818</v>
       </c>
       <c r="B304" t="n">
-        <v>134977</v>
+        <v>165871</v>
       </c>
       <c r="C304" t="s">
         <v>1934</v>
@@ -27950,7 +27950,7 @@
         <v>15818</v>
       </c>
       <c r="B305" t="n">
-        <v>134978</v>
+        <v>165872</v>
       </c>
       <c r="C305" t="s">
         <v>1942</v>
@@ -28021,7 +28021,7 @@
         <v>15818</v>
       </c>
       <c r="B306" t="n">
-        <v>134979</v>
+        <v>165873</v>
       </c>
       <c r="C306" t="s">
         <v>1950</v>
@@ -28092,7 +28092,7 @@
         <v>15818</v>
       </c>
       <c r="B307" t="n">
-        <v>134980</v>
+        <v>165874</v>
       </c>
       <c r="C307" t="s">
         <v>1957</v>
@@ -28226,7 +28226,7 @@
         <v>15818</v>
       </c>
       <c r="B309" t="n">
-        <v>134981</v>
+        <v>165875</v>
       </c>
       <c r="C309" t="s">
         <v>1971</v>
@@ -28293,7 +28293,7 @@
         <v>15818</v>
       </c>
       <c r="B310" t="n">
-        <v>134982</v>
+        <v>165876</v>
       </c>
       <c r="C310" t="s">
         <v>1978</v>
@@ -28368,7 +28368,7 @@
         <v>15818</v>
       </c>
       <c r="B311" t="n">
-        <v>134983</v>
+        <v>165877</v>
       </c>
       <c r="C311" t="s">
         <v>1988</v>
@@ -28439,7 +28439,7 @@
         <v>15818</v>
       </c>
       <c r="B312" t="n">
-        <v>134984</v>
+        <v>165878</v>
       </c>
       <c r="C312" t="s">
         <v>1995</v>
@@ -28510,7 +28510,7 @@
         <v>15818</v>
       </c>
       <c r="B313" t="n">
-        <v>134985</v>
+        <v>165879</v>
       </c>
       <c r="C313" t="s">
         <v>2002</v>
@@ -28581,7 +28581,7 @@
         <v>15818</v>
       </c>
       <c r="B314" t="n">
-        <v>134986</v>
+        <v>165880</v>
       </c>
       <c r="C314" t="s">
         <v>2008</v>
@@ -28652,7 +28652,7 @@
         <v>15818</v>
       </c>
       <c r="B315" t="n">
-        <v>134987</v>
+        <v>165881</v>
       </c>
       <c r="C315" t="s">
         <v>2015</v>
@@ -28723,7 +28723,7 @@
         <v>15818</v>
       </c>
       <c r="B316" t="n">
-        <v>134988</v>
+        <v>165882</v>
       </c>
       <c r="C316" t="s">
         <v>2023</v>
@@ -28794,7 +28794,7 @@
         <v>15818</v>
       </c>
       <c r="B317" t="n">
-        <v>134989</v>
+        <v>165883</v>
       </c>
       <c r="C317" t="s">
         <v>2031</v>
@@ -28865,7 +28865,7 @@
         <v>15818</v>
       </c>
       <c r="B318" t="n">
-        <v>134990</v>
+        <v>165884</v>
       </c>
       <c r="C318" t="s">
         <v>2039</v>
@@ -28936,7 +28936,7 @@
         <v>15818</v>
       </c>
       <c r="B319" t="n">
-        <v>134991</v>
+        <v>165885</v>
       </c>
       <c r="C319" t="s">
         <v>2046</v>
@@ -29007,7 +29007,7 @@
         <v>15818</v>
       </c>
       <c r="B320" t="n">
-        <v>134992</v>
+        <v>165886</v>
       </c>
       <c r="C320" t="s">
         <v>2054</v>
@@ -29078,7 +29078,7 @@
         <v>15818</v>
       </c>
       <c r="B321" t="n">
-        <v>134993</v>
+        <v>165887</v>
       </c>
       <c r="C321" t="s">
         <v>2062</v>
@@ -29149,7 +29149,7 @@
         <v>15818</v>
       </c>
       <c r="B322" t="n">
-        <v>134994</v>
+        <v>165888</v>
       </c>
       <c r="C322" t="s">
         <v>2070</v>
